--- a/data/output/write_data_distances/resume.xlsx
+++ b/data/output/write_data_distances/resume.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="900" yWindow="-17460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ttest write touch distance" sheetId="3" r:id="rId1"/>
@@ -592,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
